--- a/Data/20250521_Location choie_unit of analysis.xlsx
+++ b/Data/20250521_Location choie_unit of analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/kuralarasan_kumar_ugent_be/Documents/My Projects/Grafitti Project/Urban_Foraging_Archive/Articles_drafts/2024 Snatching/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="8_{EFC87188-78FF-40D8-BAA9-20230AE40470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F4B852-20DA-467A-8196-9C308E52D470}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{EFC87188-78FF-40D8-BAA9-20230AE40470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65293683-D8C3-4690-86E2-D744BD80CF1E}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E22BB9B-89AF-4CFF-A417-35485B719593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E22BB9B-89AF-4CFF-A417-35485B719593}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,6 +621,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,11 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE16F5C-9A23-431F-BBFB-BA5A34AA640B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:E47"/>
     </sheetView>
   </sheetViews>
@@ -1048,7 +1051,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1812,7 +1815,7 @@
       </c>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2300,25 +2303,25 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="C58" s="5"/>
       <c r="D58" s="3"/>
@@ -2327,7 +2330,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="C59" s="5"/>
       <c r="D59" s="3"/>
@@ -2336,7 +2339,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="C60" s="5"/>
       <c r="D60" s="3"/>
@@ -2345,7 +2348,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="C61" s="5"/>
       <c r="D61" s="3"/>
@@ -2354,7 +2357,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
@@ -2363,7 +2366,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2372,7 +2375,7 @@
       <c r="G63" s="15"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
@@ -2381,7 +2384,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
@@ -2390,7 +2393,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -2399,7 +2402,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2419,12 +2422,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H67" xr:uid="{9EE16F5C-9A23-431F-BBFB-BA5A34AA640B}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="m"/>
-        <filter val="m²"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H67">
       <sortCondition ref="A1:A67"/>
     </sortState>
